--- a/initial_claims/RI/RI_data.xlsx
+++ b/initial_claims/RI/RI_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/states/RI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/RI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1943E91C-62A5-8347-B9BA-FC087E34770C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB973FE-C8CF-0246-92B1-27FDB4FA87F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11760" yWindow="0" windowWidth="21840" windowHeight="13740" xr2:uid="{E883DFCA-E5EF-4675-8FBF-BE5F65C8778A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$A:$A,Sheet1!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Gender:</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>Week ending May 30</t>
+  </si>
+  <si>
+    <t>Week ending June 6</t>
   </si>
 </sst>
 </file>
@@ -741,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FC93B-C72D-4E4E-A2AE-B9DE09563570}">
-  <dimension ref="A1:W80"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -755,11 +758,11 @@
     <col min="12" max="12" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.1640625" style="4"/>
     <col min="15" max="15" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1640625" style="4"/>
+    <col min="16" max="24" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="3" t="s">
         <v>85</v>
       </c>
@@ -785,13 +788,14 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="42">
+    <row r="3" spans="1:24" ht="42">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -859,13 +863,16 @@
       <c r="W3" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="3"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1">
+    <row r="5" spans="1:24" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
@@ -935,8 +942,11 @@
       <c r="W5" s="12">
         <v>2675</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" s="3" customFormat="1">
+      <c r="X5" s="12">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="3" customFormat="1">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -959,8 +969,9 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
-    </row>
-    <row r="7" spans="1:23" s="3" customFormat="1">
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:24" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -986,8 +997,9 @@
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" s="14"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1057,8 +1069,11 @@
       <c r="W8" s="14">
         <v>1403.4709535988309</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" s="14">
+        <v>1783.8436944937835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1128,8 +1143,11 @@
       <c r="W9" s="14">
         <v>1251.0047497259775</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" s="14">
+        <v>1631.5346358792185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
@@ -1199,8 +1217,11 @@
       <c r="W10" s="14">
         <v>20.524296675191817</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="14">
+        <v>14.621669626998225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1223,8 +1244,9 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -1250,8 +1272,9 @@
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" s="14"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1321,8 +1344,11 @@
       <c r="W13" s="14">
         <v>253.13299232736574</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" s="14">
+        <v>168.14920071047959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1392,8 +1418,11 @@
       <c r="W14" s="14">
         <v>215.99378881987579</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="14">
+        <v>168.14920071047959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1463,8 +1492,11 @@
       <c r="W15" s="14">
         <v>531.67701863354034</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="14">
+        <v>587.30373001776206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1534,8 +1566,11 @@
       <c r="W16" s="14">
         <v>404.62184873949582</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" s="14">
+        <v>645.79040852575497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
@@ -1605,8 +1640,11 @@
       <c r="W17" s="14">
         <v>618.66094263792479</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" s="14">
+        <v>707.93250444049738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1676,8 +1714,11 @@
       <c r="W18" s="14">
         <v>512.13006941907202</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" s="14">
+        <v>898.01420959147435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -1747,8 +1788,11 @@
       <c r="W19" s="14">
         <v>138.78333942272562</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" s="14">
+        <v>254.66074600355242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1771,8 +1815,9 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" s="13"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
@@ -1798,8 +1843,9 @@
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" s="14"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1869,8 +1915,11 @@
       <c r="W22" s="14">
         <v>1662.468030690537</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" s="14">
+        <v>1998.2948490230908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1940,8 +1989,11 @@
       <c r="W23" s="14">
         <v>234.56339057362075</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" s="14">
+        <v>159.61989342806396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="4" t="s">
         <v>77</v>
       </c>
@@ -2011,8 +2063,11 @@
       <c r="W24" s="14">
         <v>60.595542564852032</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" s="14">
+        <v>392.34813499111903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="4" t="s">
         <v>78</v>
       </c>
@@ -2082,8 +2137,11 @@
       <c r="W25" s="14">
         <v>22.478991596638657</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" s="14">
+        <v>14.621669626998225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -2153,8 +2211,11 @@
       <c r="W26" s="14">
         <v>33.229813664596271</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" s="14">
+        <v>84.074600355239795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -2224,8 +2285,11 @@
       <c r="W27" s="14">
         <v>661.66423090975525</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" s="14">
+        <v>781.04085257548854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2248,8 +2312,9 @@
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" s="13"/>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="9" t="s">
         <v>81</v>
       </c>
@@ -2275,8 +2340,9 @@
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" s="14"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -2346,8 +2412,11 @@
       <c r="W30" s="14">
         <v>336.20752648885644</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" s="14">
+        <v>650.66429840142098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -2417,8 +2486,11 @@
       <c r="W31" s="14">
         <v>93.825356229448303</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" s="14">
+        <v>153.52753108348136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -2488,8 +2560,11 @@
       <c r="W32" s="14">
         <v>86.006576543660941</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" s="14">
+        <v>95.040852575488458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -2559,8 +2634,11 @@
       <c r="W33" s="14">
         <v>76.233101936426749</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" s="14">
+        <v>95.040852575488458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -2630,8 +2708,11 @@
       <c r="W34" s="14">
         <v>40.071245889660212</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" s="14">
+        <v>40.209591474245116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -2701,8 +2782,11 @@
       <c r="W35" s="14">
         <v>28.343076360979175</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" s="14">
+        <v>49.957371225577269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -2772,8 +2856,11 @@
       <c r="W36" s="14">
         <v>4.8867373036170996</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" s="14">
+        <v>25.587921847246893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -2843,8 +2930,11 @@
       <c r="W37" s="14">
         <v>120.21373766898064</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" s="14">
+        <v>103.57015985790409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -2914,8 +3004,11 @@
       <c r="W38" s="14">
         <v>68.414322250639387</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" s="14">
+        <v>106.00710479573713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
@@ -2985,8 +3078,11 @@
       <c r="W39" s="14">
         <v>132.91925465838509</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" s="14">
+        <v>129.15808170515098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3056,8 +3152,11 @@
       <c r="W40" s="14">
         <v>62.550237486298869</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" s="14">
+        <v>59.705150976909415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
@@ -3127,8 +3226,11 @@
       <c r="W41" s="14">
         <v>36.16185604676653</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" s="14">
+        <v>45.083481349911196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3300,11 @@
       <c r="W42" s="14">
         <v>228.69930580928025</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" s="14">
+        <v>212.01420959147427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3269,8 +3374,11 @@
       <c r="W43" s="14">
         <v>71.346364632809653</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" s="14">
+        <v>103.57015985790409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3340,8 +3448,11 @@
       <c r="W44" s="14">
         <v>76.233101936426749</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" s="14">
+        <v>106.00710479573713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3411,8 +3522,11 @@
       <c r="W45" s="14">
         <v>184.71867007672634</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" s="14">
+        <v>233.9467140319716</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -3482,8 +3596,11 @@
       <c r="W46" s="14">
         <v>400.71245889660213</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" s="14">
+        <v>543.4387211367673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -3553,8 +3670,11 @@
       <c r="W47" s="14">
         <v>7.8187796857873586</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47" s="14">
+        <v>29.243339253996449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -3624,8 +3744,11 @@
       <c r="W48" s="14">
         <v>59.61819510412861</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48" s="14">
+        <v>90.166962699822392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -3695,8 +3818,11 @@
       <c r="W49" s="14">
         <v>66.459627329192543</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" s="14">
+        <v>77.982238010657198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
@@ -3766,8 +3892,11 @@
       <c r="W50" s="14">
         <v>173.96784800876873</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" s="14">
+        <v>191.30017761989345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -3837,8 +3966,11 @@
       <c r="W51" s="14">
         <v>165.17172086225796</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51" s="14">
+        <v>155.9644760213144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
@@ -3908,8 +4040,11 @@
       <c r="W52" s="14">
         <v>6.8414322250639383</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52" s="14">
+        <v>6.0923623445825932</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
@@ -3979,8 +4114,11 @@
       <c r="W53" s="14">
         <v>147.57946656923639</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53" s="14">
+        <v>126.72113676731794</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -4003,8 +4141,9 @@
       <c r="U54" s="13"/>
       <c r="V54" s="13"/>
       <c r="W54" s="13"/>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54" s="13"/>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="2" t="s">
         <v>37</v>
       </c>
@@ -4030,8 +4169,9 @@
       <c r="U55" s="14"/>
       <c r="V55" s="14"/>
       <c r="W55" s="14"/>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" s="14"/>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="4" t="s">
         <v>38</v>
       </c>
@@ -4101,8 +4241,11 @@
       <c r="W56" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" s="14">
+        <v>1.2184724689165187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="4" t="s">
         <v>39</v>
       </c>
@@ -4172,8 +4315,11 @@
       <c r="W57" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="4" t="s">
         <v>40</v>
       </c>
@@ -4243,8 +4389,11 @@
       <c r="W58" s="14">
         <v>0.97734746072341983</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58" s="14">
+        <v>0.97734746072341983</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="4" t="s">
         <v>41</v>
       </c>
@@ -4314,8 +4463,11 @@
       <c r="W59" s="14">
         <v>84.051881622214111</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59" s="14">
+        <v>114.53641207815276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="4" t="s">
         <v>42</v>
       </c>
@@ -4385,8 +4537,11 @@
       <c r="W60" s="14">
         <v>224.78991596638656</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60" s="14">
+        <v>305.83658969804623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="4" t="s">
         <v>43</v>
       </c>
@@ -4456,8 +4611,11 @@
       <c r="W61" s="14">
         <v>76.233101936426749</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61" s="14">
+        <v>101.13321492007105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="4" t="s">
         <v>44</v>
       </c>
@@ -4527,8 +4685,11 @@
       <c r="W62" s="14">
         <v>229.67665327000367</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62" s="14">
+        <v>242.47602131438722</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="4" t="s">
         <v>45</v>
       </c>
@@ -4598,8 +4759,11 @@
       <c r="W63" s="14">
         <v>54.731457800511507</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63" s="14">
+        <v>68.234458259325052</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="4" t="s">
         <v>46</v>
       </c>
@@ -4669,8 +4833,11 @@
       <c r="W64" s="14">
         <v>42.025940811107056</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64" s="14">
+        <v>51.175843694493786</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="4" t="s">
         <v>47</v>
       </c>
@@ -4740,8 +4907,11 @@
       <c r="W65" s="14">
         <v>127.05516989404458</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65" s="14">
+        <v>261.97158081705152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="4" t="s">
         <v>48</v>
       </c>
@@ -4811,8 +4981,11 @@
       <c r="W66" s="14">
         <v>17.592254293021558</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66" s="14">
+        <v>30.461811722912969</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="4" t="s">
         <v>49</v>
       </c>
@@ -4882,8 +5055,11 @@
       <c r="W67" s="14">
         <v>176.89989039093899</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67" s="14">
+        <v>180.33392539964478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="4" t="s">
         <v>50</v>
       </c>
@@ -4953,8 +5129,11 @@
       <c r="W68" s="14">
         <v>102.62148337595909</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68" s="14">
+        <v>76.763765541740682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -5024,8 +5203,11 @@
       <c r="W69" s="14">
         <v>215.01644135915237</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69" s="14">
+        <v>170.58614564831262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="4" t="s">
         <v>51</v>
       </c>
@@ -5095,8 +5277,11 @@
       <c r="W70" s="14">
         <v>208.17500913408841</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70" s="14">
+        <v>309.49200710479573</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="4" t="s">
         <v>52</v>
       </c>
@@ -5166,8 +5351,11 @@
       <c r="W71" s="14">
         <v>301.02301790281331</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71" s="14">
+        <v>349.70159857904088</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="4" t="s">
         <v>53</v>
       </c>
@@ -5237,8 +5425,11 @@
       <c r="W72" s="14">
         <v>53.754110339788092</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72" s="14">
+        <v>59.705150976909415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="4" t="s">
         <v>54</v>
       </c>
@@ -5308,8 +5499,11 @@
       <c r="W73" s="14">
         <v>258.99707709170627</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73" s="14">
+        <v>202.26642984014211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="4" t="s">
         <v>55</v>
       </c>
@@ -5379,8 +5573,11 @@
       <c r="W74" s="14">
         <v>79.165144318597001</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74" s="14">
+        <v>76.763765541740682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" s="4" t="s">
         <v>83</v>
       </c>
@@ -5450,8 +5647,11 @@
       <c r="W75" s="14">
         <v>44.957983193277315</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75" s="14">
+        <v>258.31616341030195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
@@ -5521,8 +5721,11 @@
       <c r="W76" s="14">
         <v>377.25611983924006</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76" s="14">
+        <v>569.02664298401419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
@@ -5530,12 +5733,12 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" s="4" t="s">
         <v>56</v>
       </c>
